--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64328.23892083262</v>
+        <v>12644343.35007043</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64328.23892083262</v>
+        <v>12644343.35007043</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>187544.9313937277</v>
+        <v>21671117.70683511</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187544.9313937277</v>
+        <v>21671117.70683511</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1339551238.848207</v>
+        <v>32107375.53077656</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16050.304002205</v>
+        <v>846234.6173208514</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30263.79047274145</v>
+        <v>1437854.650937679</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44751.03848062888</v>
+        <v>2029474.684554506</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58782.90813238381</v>
+        <v>2620863.732905924</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72815.06397477552</v>
+        <v>3212309.733194061</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>86847.79140017659</v>
+        <v>3816419.001093606</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100832.3448847676</v>
+        <v>4656081.305101227</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114452.3206450967</v>
+        <v>5423192.641980694</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128110.0700507291</v>
+        <v>5958133.052867598</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142110.4768186872</v>
+        <v>6565574.317358349</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>156104.8489628854</v>
+        <v>7172375.91173056</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>170099.2211070838</v>
+        <v>7779177.506102771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184093.5314888235</v>
+        <v>8385979.100474982</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>198830.4381651632</v>
+        <v>8804414.977802152</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>213543.127729645</v>
+        <v>9092160.312310124</v>
       </c>
     </row>
   </sheetData>
